--- a/hBGW_statistics.xlsx
+++ b/hBGW_statistics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\Documents\PhD\Artículos\CRM and TAD BioGateway\Final Version - Correcciones revisores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6025BC-3912-40F6-8E8E-8824D593FB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1EB583-9CE0-4769-AA29-D8CF2CB9919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
   <si>
     <t>Graph name</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>Number of different anatomical structures (UBERON terms)</t>
+  </si>
+  <si>
+    <t>20,045</t>
   </si>
 </sst>
 </file>
@@ -858,7 +861,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,8 +956,8 @@
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>20.196999999999999</v>
+      <c r="B8" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>49</v>

--- a/hBGW_statistics.xlsx
+++ b/hBGW_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\cisreg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1EB583-9CE0-4769-AA29-D8CF2CB9919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55166E84-BB2F-4F94-92FE-0600484B7745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hGBW" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="150">
   <si>
     <t>Graph name</t>
   </si>
@@ -457,6 +457,24 @@
   </si>
   <si>
     <t>20,045</t>
+  </si>
+  <si>
+    <t>ortho</t>
+  </si>
+  <si>
+    <t>Protein-protein orthology relations</t>
+  </si>
+  <si>
+    <t>Number of different relations</t>
+  </si>
+  <si>
+    <t>1,805,780</t>
+  </si>
+  <si>
+    <t>1 (OrthoDB)</t>
+  </si>
+  <si>
+    <t>139,645 (19,964 from Homo sapiens)</t>
   </si>
 </sst>
 </file>
@@ -858,23 +876,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="53.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="53.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>86</v>
       </c>
@@ -882,7 +900,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -896,7 +914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -910,7 +928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -924,7 +942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
@@ -938,7 +956,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -952,7 +970,7 @@
         <v>4.8410000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -966,7 +984,7 @@
         <v>3.4790000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -980,7 +998,7 @@
         <v>4.617</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>138</v>
       </c>
@@ -988,7 +1006,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>139</v>
       </c>
@@ -1002,7 +1020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>140</v>
       </c>
@@ -1016,7 +1034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>141</v>
       </c>
@@ -1030,7 +1048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>142</v>
       </c>
@@ -1044,7 +1062,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="11" t="s">
         <v>55</v>
       </c>
@@ -1052,7 +1070,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1098,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1094,7 +1112,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1102,7 +1120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1134,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>139</v>
       </c>
@@ -1130,7 +1148,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>140</v>
       </c>
@@ -1144,7 +1162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>141</v>
       </c>
@@ -1158,7 +1176,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>142</v>
       </c>
@@ -1172,7 +1190,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="11" t="s">
         <v>58</v>
       </c>
@@ -1180,7 +1198,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1212,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
@@ -1208,7 +1226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -1216,7 +1234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
@@ -1230,7 +1248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -1244,7 +1262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>22</v>
       </c>
@@ -1258,7 +1276,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="11" t="s">
         <v>5</v>
       </c>
@@ -1266,7 +1284,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1298,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
@@ -1294,7 +1312,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>27</v>
       </c>
@@ -1308,7 +1326,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>30</v>
       </c>
@@ -1322,7 +1340,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1348,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D38" s="9" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1356,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1370,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>1</v>
       </c>
@@ -1366,7 +1384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
@@ -1380,7 +1398,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" s="11" t="s">
         <v>81</v>
       </c>
@@ -1388,7 +1406,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1420,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>1</v>
       </c>
@@ -1416,7 +1434,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>34</v>
       </c>
@@ -1424,7 +1442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>39</v>
       </c>
@@ -1438,7 +1456,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>38</v>
       </c>
@@ -1452,7 +1470,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D48" s="11" t="s">
         <v>30</v>
       </c>
@@ -1460,7 +1478,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D49" s="11" t="s">
         <v>5</v>
       </c>
@@ -1468,7 +1486,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1500,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +1514,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>33</v>
       </c>
@@ -1510,7 +1528,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D53" s="11" t="s">
         <v>95</v>
       </c>
@@ -1518,7 +1536,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1550,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>1</v>
       </c>
@@ -1546,7 +1564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>33</v>
       </c>
@@ -1560,7 +1578,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D57" s="11" t="s">
         <v>102</v>
       </c>
@@ -1568,7 +1586,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D58" s="11" t="s">
         <v>103</v>
       </c>
@@ -1576,7 +1594,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D59" s="11" t="s">
         <v>9</v>
       </c>
@@ -1584,7 +1602,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D61" s="9" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1610,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D62" s="11" t="s">
         <v>1</v>
       </c>
@@ -1600,7 +1618,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D63" s="11" t="s">
         <v>30</v>
       </c>
@@ -1608,7 +1626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D64" s="11" t="s">
         <v>117</v>
       </c>
@@ -1616,7 +1634,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D65" s="11" t="s">
         <v>121</v>
       </c>
@@ -1624,7 +1642,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D66" s="11" t="s">
         <v>119</v>
       </c>
@@ -1632,7 +1650,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D67" s="11" t="s">
         <v>124</v>
       </c>
@@ -1640,7 +1658,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D68" s="11" t="s">
         <v>120</v>
       </c>
@@ -1648,7 +1666,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D69" s="11" t="s">
         <v>125</v>
       </c>
@@ -1656,7 +1674,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D70" s="11" t="s">
         <v>132</v>
       </c>
@@ -1664,7 +1682,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D71" s="11" t="s">
         <v>131</v>
       </c>
@@ -1672,7 +1690,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D72" s="11" t="s">
         <v>129</v>
       </c>
@@ -1680,12 +1698,60 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D73" s="11" t="s">
         <v>130</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D77" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D78" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D79" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D80" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/hBGW_statistics.xlsx
+++ b/hBGW_statistics.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\cisreg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\Documents\PhD\Artículos\CRM and TAD BioGateway\Final Version - Correcciones revisores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55166E84-BB2F-4F94-92FE-0600484B7745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A355D-AE40-499A-BA20-DD2ADB322B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hGBW" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -471,10 +482,10 @@
     <t>1,805,780</t>
   </si>
   <si>
+    <t>139,645 (19,964 from Homo sapiens)</t>
+  </si>
+  <si>
     <t>1 (OrthoDB)</t>
-  </si>
-  <si>
-    <t>139,645 (19,964 from Homo sapiens)</t>
   </si>
 </sst>
 </file>
@@ -878,9 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1735,7 +1744,7 @@
         <v>27</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.25">
@@ -1751,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
